--- a/Tranportation_variables.xlsx
+++ b/Tranportation_variables.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="16215" windowHeight="7440"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="16215" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Variable_List" sheetId="1" r:id="rId1"/>
+    <sheet name="Dummy_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="176">
   <si>
     <t>Type</t>
   </si>
@@ -54,9 +53,6 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>No of Stop points netween origin and destination</t>
-  </si>
-  <si>
     <t>Driver_ID</t>
   </si>
   <si>
@@ -78,24 +74,12 @@
     <t>Trip_Cnt_Daily</t>
   </si>
   <si>
-    <t>Trip_Date</t>
-  </si>
-  <si>
-    <t>Trip_Time</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Trip Date</t>
-  </si>
-  <si>
-    <t>Trip Time</t>
-  </si>
-  <si>
     <t>Driver_Rating</t>
   </si>
   <si>
@@ -138,15 +122,6 @@
     <t>Individual Trip Profit</t>
   </si>
   <si>
-    <t>Delivery_item</t>
-  </si>
-  <si>
-    <t>items to be delivered</t>
-  </si>
-  <si>
-    <t>item_Type</t>
-  </si>
-  <si>
     <t>Type of items to be delivered</t>
   </si>
   <si>
@@ -196,12 +171,387 @@
   </si>
   <si>
     <t>Unique ID for each order</t>
+  </si>
+  <si>
+    <t>No of Stop points between origin and destination</t>
+  </si>
+  <si>
+    <t>Vehicle_Type</t>
+  </si>
+  <si>
+    <t>Vehicle Type(mini or Regular size)</t>
+  </si>
+  <si>
+    <t>Invoice_No</t>
+  </si>
+  <si>
+    <t>Invoice Number for billing purpose</t>
+  </si>
+  <si>
+    <t>Goods_Type</t>
+  </si>
+  <si>
+    <t>Goods_Quantity</t>
+  </si>
+  <si>
+    <t>Quantity of goods to be delivered</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Goods that are delivered based priority/urgency</t>
+  </si>
+  <si>
+    <t>Vehicle_Milage</t>
+  </si>
+  <si>
+    <t>Milage of the vehicle per ltr</t>
+  </si>
+  <si>
+    <t>spl_packing</t>
+  </si>
+  <si>
+    <t>Special packing required(Yes/No)</t>
+  </si>
+  <si>
+    <t>payment_mode</t>
+  </si>
+  <si>
+    <t>Mode of payment(Cash/Cheque/Online)</t>
+  </si>
+  <si>
+    <t>package_cnt</t>
+  </si>
+  <si>
+    <t>Number of package</t>
+  </si>
+  <si>
+    <t>License No</t>
+  </si>
+  <si>
+    <t>Import or Export license</t>
+  </si>
+  <si>
+    <t>RID02</t>
+  </si>
+  <si>
+    <t>RID03</t>
+  </si>
+  <si>
+    <t>RID04</t>
+  </si>
+  <si>
+    <t>RID05</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>PUNE</t>
+  </si>
+  <si>
+    <t>MUM</t>
+  </si>
+  <si>
+    <t>KOL</t>
+  </si>
+  <si>
+    <t>BNG</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Trip_Distance(Miles)</t>
+  </si>
+  <si>
+    <t>DID01</t>
+  </si>
+  <si>
+    <t>DID02</t>
+  </si>
+  <si>
+    <t>DID03</t>
+  </si>
+  <si>
+    <t>DID04</t>
+  </si>
+  <si>
+    <t>DID05</t>
+  </si>
+  <si>
+    <t>CID01</t>
+  </si>
+  <si>
+    <t>CID02</t>
+  </si>
+  <si>
+    <t>CID03</t>
+  </si>
+  <si>
+    <t>CID04</t>
+  </si>
+  <si>
+    <t>CID05</t>
+  </si>
+  <si>
+    <t>Trip_Start_Date</t>
+  </si>
+  <si>
+    <t>Trip Start Date</t>
+  </si>
+  <si>
+    <t>Trip_End_Date</t>
+  </si>
+  <si>
+    <t>Trip End Date</t>
+  </si>
+  <si>
+    <t>Trip_Start_Time</t>
+  </si>
+  <si>
+    <t>Trip Start Time</t>
+  </si>
+  <si>
+    <t>Trip End Time</t>
+  </si>
+  <si>
+    <t>Trip_End_Time</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>LN1234</t>
+  </si>
+  <si>
+    <t>LN1235</t>
+  </si>
+  <si>
+    <t>LN1236</t>
+  </si>
+  <si>
+    <t>LN1237</t>
+  </si>
+  <si>
+    <t>LN1238</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>INO1256</t>
+  </si>
+  <si>
+    <t>INO1257</t>
+  </si>
+  <si>
+    <t>INO1258</t>
+  </si>
+  <si>
+    <t>INO1259</t>
+  </si>
+  <si>
+    <t>INO1260</t>
+  </si>
+  <si>
+    <t>ACN987</t>
+  </si>
+  <si>
+    <t>ACN988</t>
+  </si>
+  <si>
+    <t>ACN989</t>
+  </si>
+  <si>
+    <t>ACN990</t>
+  </si>
+  <si>
+    <t>ACN991</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>RCN7869</t>
+  </si>
+  <si>
+    <t>RCN7870</t>
+  </si>
+  <si>
+    <t>RCN7871</t>
+  </si>
+  <si>
+    <t>RCN7872</t>
+  </si>
+  <si>
+    <t>RCN7873</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Lagre</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>30 Ltr</t>
+  </si>
+  <si>
+    <t>31 Ltr</t>
+  </si>
+  <si>
+    <t>32 Ltr</t>
+  </si>
+  <si>
+    <t>33 Ltr</t>
+  </si>
+  <si>
+    <t>34 Ltr</t>
+  </si>
+  <si>
+    <t>15/Ltr</t>
+  </si>
+  <si>
+    <t>12/Ltr</t>
+  </si>
+  <si>
+    <t>10/Ltr</t>
+  </si>
+  <si>
+    <t>18/Ltr</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>OID749</t>
+  </si>
+  <si>
+    <t>OID750</t>
+  </si>
+  <si>
+    <t>OID751</t>
+  </si>
+  <si>
+    <t>OID752</t>
+  </si>
+  <si>
+    <t>OID753</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Machinary</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Garments</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>1000kg</t>
+  </si>
+  <si>
+    <t>50kg</t>
+  </si>
+  <si>
+    <t>90kg</t>
+  </si>
+  <si>
+    <t>159kg</t>
+  </si>
+  <si>
+    <t>500kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]h:mm:ss;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -211,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +571,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,10 +608,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +910,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,181 +979,181 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -799,7 +1162,7 @@
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>59</v>
@@ -808,75 +1171,195 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,24 +1369,687 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.57314814814814818</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.78148148148148155</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>43102</v>
+      </c>
+      <c r="J3" s="5">
+        <v>43102</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.61481481481481504</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.82314814814814796</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>43103</v>
+      </c>
+      <c r="J4" s="5">
+        <v>43103</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.656481481481482</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.86481481481481504</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>18</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>900</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>43104</v>
+      </c>
+      <c r="J5" s="5">
+        <v>43104</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.69814814814814796</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.906481481481482</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>25</v>
+      </c>
+      <c r="R5" s="2">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>500</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>43105</v>
+      </c>
+      <c r="J6" s="5">
+        <v>43105</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.73981481481481504</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.94814814814814796</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>35</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>